--- a/Excel project.xlsx
+++ b/Excel project.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee Data Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$51</definedName>
+    <definedName name="employee">'Employee Data Table'!$A$3:$E$23</definedName>
+    <definedName name="employee1">'Employee Data Table'!$B$3:$E$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
   <si>
     <r>
       <rPr>
@@ -379,12 +382,213 @@
   <si>
     <t>Pass</t>
   </si>
+  <si>
+    <t>Employee Data Table</t>
+  </si>
+  <si>
+    <t>Emp ID</t>
+  </si>
+  <si>
+    <t>Emp Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Rocco Anderson</t>
+  </si>
+  <si>
+    <t>Rocco_Anderson5427@acrit.org</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Hank Saunders</t>
+  </si>
+  <si>
+    <t>Hank_Saunders8364@extex.org</t>
+  </si>
+  <si>
+    <t>Chef Manager</t>
+  </si>
+  <si>
+    <t>Eden Connell</t>
+  </si>
+  <si>
+    <t>Eden_Connell4891@irrespy.com</t>
+  </si>
+  <si>
+    <t>Owen Lindop</t>
+  </si>
+  <si>
+    <t>Owen_Lindop4826@womeona.net</t>
+  </si>
+  <si>
+    <t>Business Broker</t>
+  </si>
+  <si>
+    <t>Barney Cavanagh</t>
+  </si>
+  <si>
+    <t>Barney_Cavanagh8048@extex.org</t>
+  </si>
+  <si>
+    <t>Fabricator</t>
+  </si>
+  <si>
+    <t>Mason Randall</t>
+  </si>
+  <si>
+    <t>Mason_Randall7355@sheye.org</t>
+  </si>
+  <si>
+    <t>Food Technologist</t>
+  </si>
+  <si>
+    <t>Penelope Burge</t>
+  </si>
+  <si>
+    <t>Penelope_Burge3295@cispeto.com</t>
+  </si>
+  <si>
+    <t>Book keeper</t>
+  </si>
+  <si>
+    <t>Fred Stone</t>
+  </si>
+  <si>
+    <t>Fred_Stone667@cispeto.com</t>
+  </si>
+  <si>
+    <t>Stock broker</t>
+  </si>
+  <si>
+    <t>Javier Power</t>
+  </si>
+  <si>
+    <t>Javier_Power8197@infotech44.tech</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Joyce London</t>
+  </si>
+  <si>
+    <t>Joyce_London9945@bulaffy.com</t>
+  </si>
+  <si>
+    <t>Steward</t>
+  </si>
+  <si>
+    <t>Eduardo Dale</t>
+  </si>
+  <si>
+    <t>Eduardo_Dale6990@sheye.org</t>
+  </si>
+  <si>
+    <t>HR Coordinator</t>
+  </si>
+  <si>
+    <t>Wade Hepburn</t>
+  </si>
+  <si>
+    <t>Wade_Hepburn96@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile Developer</t>
+  </si>
+  <si>
+    <t>Barney Selby</t>
+  </si>
+  <si>
+    <t>Barney_Selby4788@irrespy.com</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Peter Daniells</t>
+  </si>
+  <si>
+    <t>Peter_Daniells7930@guentu.biz</t>
+  </si>
+  <si>
+    <t>Webmaster</t>
+  </si>
+  <si>
+    <t>Percy Denton</t>
+  </si>
+  <si>
+    <t>Percy_Denton5997@bretoux.com</t>
+  </si>
+  <si>
+    <t>Treasurer</t>
+  </si>
+  <si>
+    <t>Ronald Rycroft</t>
+  </si>
+  <si>
+    <t>Ronald_Rycroft7391@fuliss.net</t>
+  </si>
+  <si>
+    <t>Noah Kidd</t>
+  </si>
+  <si>
+    <t>Noah_Kidd6142@gompie.com</t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t>Mark Freeburn</t>
+  </si>
+  <si>
+    <t>Mark_Freeburn4410@brety.org</t>
+  </si>
+  <si>
+    <t>Retail Trainee</t>
+  </si>
+  <si>
+    <t>Melanie Cartwright</t>
+  </si>
+  <si>
+    <t>Melanie_Cartwright8871@irrespy.com</t>
+  </si>
+  <si>
+    <t>IT Support Staff</t>
+  </si>
+  <si>
+    <t>Harvey Andrews</t>
+  </si>
+  <si>
+    <t>Harvey_Andrews619@mafthy.com</t>
+  </si>
+  <si>
+    <t>vlookap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emp Id </t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +619,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +644,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,10 +684,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -487,1307 +718,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="441">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -3348,13 +2305,13 @@
     <i/>
   </colItems>
   <formats count="9">
-    <format dxfId="440">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="439">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="438">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -3366,10 +2323,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="437">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="436">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -3381,10 +2338,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="435">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="434">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -3396,10 +2353,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="433">
+    <format dxfId="1">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="432">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -3686,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -5427,13 +4384,27 @@
   </sheetData>
   <autoFilter ref="A3:H51"/>
   <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <color rgb="FF92D050"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="between">
+      <formula>33</formula>
+      <formula>100</formula>
     </cfRule>
     <cfRule type="dataBar" priority="8">
       <dataBar>
@@ -5447,26 +4418,12 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="between">
-      <formula>33</formula>
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5529,4 +4486,441 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>101</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5400</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="20" t="str">
+        <f>IFERROR(VLOOKUP(H5,employee,2,0),"NotFound")</f>
+        <v>Rocco Anderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>104</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>105</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="str">
+        <f>H6</f>
+        <v>Rocco Anderson</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>106</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(H8,employee1,3,1),"NotFound")</f>
+        <v>Business Broker</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>107</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>108</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>109</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>110</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>111</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>112</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="18">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>113</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>114</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>115</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>116</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>117</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="18">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>118</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>119</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="18">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>120</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="18">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:Rocco_Anderson5427@acrit.org"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:Hank_Saunders8364@extex.org"/>
+    <hyperlink ref="C6" r:id="rId3" display="mailto:Eden_Connell4891@irrespy.com"/>
+    <hyperlink ref="C7" r:id="rId4" display="mailto:Owen_Lindop4826@womeona.net"/>
+    <hyperlink ref="C8" r:id="rId5" display="mailto:Barney_Cavanagh8048@extex.org"/>
+    <hyperlink ref="C9" r:id="rId6" display="mailto:Mason_Randall7355@sheye.org"/>
+    <hyperlink ref="C10" r:id="rId7" display="mailto:Penelope_Burge3295@cispeto.com"/>
+    <hyperlink ref="C11" r:id="rId8" display="mailto:Fred_Stone667@cispeto.com"/>
+    <hyperlink ref="C12" r:id="rId9" display="mailto:Javier_Power8197@infotech44.tech"/>
+    <hyperlink ref="C13" r:id="rId10" display="mailto:Joyce_London9945@bulaffy.com"/>
+    <hyperlink ref="C14" r:id="rId11" display="mailto:Eduardo_Dale6990@sheye.org"/>
+    <hyperlink ref="C15" r:id="rId12" display="mailto:Wade_Hepburn96@gmail.com"/>
+    <hyperlink ref="C16" r:id="rId13" display="mailto:Barney_Selby4788@irrespy.com"/>
+    <hyperlink ref="C17" r:id="rId14" display="mailto:Peter_Daniells7930@guentu.biz"/>
+    <hyperlink ref="C18" r:id="rId15" display="mailto:Percy_Denton5997@bretoux.com"/>
+    <hyperlink ref="C19" r:id="rId16" display="mailto:Ronald_Rycroft7391@fuliss.net"/>
+    <hyperlink ref="C20" r:id="rId17" display="mailto:Noah_Kidd6142@gompie.com"/>
+    <hyperlink ref="C21" r:id="rId18" display="mailto:Mark_Freeburn4410@brety.org"/>
+    <hyperlink ref="C22" r:id="rId19" display="mailto:Melanie_Cartwright8871@irrespy.com"/>
+    <hyperlink ref="C23" r:id="rId20" display="mailto:Harvey_Andrews619@mafthy.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel project.xlsx
+++ b/Excel project.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Employee Data Table" sheetId="2" r:id="rId2"/>
+    <sheet name="HLOOKUP PRACTICE" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$51</definedName>
+    <definedName name="emp">'HLOOKUP PRACTICE'!$A$9:$F$12</definedName>
     <definedName name="employee">'Employee Data Table'!$A$3:$E$23</definedName>
     <definedName name="employee1">'Employee Data Table'!$B$3:$E$23</definedName>
+    <definedName name="test">'HLOOKUP PRACTICE'!$A$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -579,6 +582,45 @@
   </si>
   <si>
     <t>Job title</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Emp Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hank Saunders </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eden Connell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owen Lindop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job_Title    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Project_Manager  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chef Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Chef Manager      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business Broker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Fabricator    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Food Technologist</t>
   </si>
 </sst>
 </file>
@@ -628,7 +670,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -739,6 +787,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4492,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4590,7 +4642,7 @@
       <c r="G6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="21" t="str">
         <f>IFERROR(VLOOKUP(H5,employee,2,0),"NotFound")</f>
         <v>Rocco Anderson</v>
       </c>
@@ -4655,7 +4707,7 @@
       <c r="G9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="22" t="str">
         <f>IFERROR(VLOOKUP(H8,employee1,3,1),"NotFound")</f>
         <v>Business Broker</v>
       </c>
@@ -4923,4 +4975,168 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1">
+        <v>101</v>
+      </c>
+      <c r="C1">
+        <v>102</v>
+      </c>
+      <c r="D1">
+        <v>103</v>
+      </c>
+      <c r="E1">
+        <v>104</v>
+      </c>
+      <c r="F1">
+        <v>105</v>
+      </c>
+      <c r="G1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>5400</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <v>8000</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f>HLOOKUP(C15,test,2,0)</f>
+        <v>Rocco Anderson</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>